--- a/Code/Results/Cases/Case_0_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04397405125282461</v>
+        <v>0.06488711199025943</v>
       </c>
       <c r="D2">
-        <v>0.01140069244352304</v>
+        <v>0.01635300175438559</v>
       </c>
       <c r="E2">
-        <v>0.05502504591619584</v>
+        <v>0.1098494444106812</v>
       </c>
       <c r="F2">
-        <v>2.570126713492058</v>
+        <v>4.571276472368226</v>
       </c>
       <c r="G2">
-        <v>0.0008371213604032705</v>
+        <v>0.002653899182221333</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.879821021631201</v>
+        <v>3.332893248685494</v>
       </c>
       <c r="J2">
-        <v>0.1243325096177585</v>
+        <v>0.2579758678232764</v>
       </c>
       <c r="K2">
-        <v>5.443612080838307</v>
+        <v>4.640079425027864</v>
       </c>
       <c r="L2">
-        <v>0.09790212580416835</v>
+        <v>0.2137478850433965</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.047150607427136</v>
+        <v>2.294238401452205</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03918225989620083</v>
+        <v>0.06387223968761191</v>
       </c>
       <c r="D3">
-        <v>0.009903887139962819</v>
+        <v>0.01589063522901313</v>
       </c>
       <c r="E3">
-        <v>0.05112165214589837</v>
+        <v>0.1094484679372911</v>
       </c>
       <c r="F3">
-        <v>2.429422114017967</v>
+        <v>4.570580968545528</v>
       </c>
       <c r="G3">
-        <v>0.0008463008341592124</v>
+        <v>0.002659709070497144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.777336621454751</v>
+        <v>3.332587146422043</v>
       </c>
       <c r="J3">
-        <v>0.1180615084370871</v>
+        <v>0.2580690294620993</v>
       </c>
       <c r="K3">
-        <v>4.779933903019639</v>
+        <v>4.495262951214954</v>
       </c>
       <c r="L3">
-        <v>0.09276800331322477</v>
+        <v>0.2136980212008766</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119199160613936</v>
+        <v>2.321807395555494</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03627092377395513</v>
+        <v>0.06326923176878552</v>
       </c>
       <c r="D4">
-        <v>0.00898969126881255</v>
+        <v>0.01560775708728457</v>
       </c>
       <c r="E4">
-        <v>0.04879222726994925</v>
+        <v>0.1092418690032009</v>
       </c>
       <c r="F4">
-        <v>2.348840265751079</v>
+        <v>4.572543650682661</v>
       </c>
       <c r="G4">
-        <v>0.0008520865557573444</v>
+        <v>0.002663463562251276</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.718714208262099</v>
+        <v>3.334155201672814</v>
       </c>
       <c r="J4">
-        <v>0.1144288501653676</v>
+        <v>0.2582351773818132</v>
       </c>
       <c r="K4">
-        <v>4.379838042380868</v>
+        <v>4.408773118721513</v>
       </c>
       <c r="L4">
-        <v>0.08975818179523998</v>
+        <v>0.2137476198980011</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.165154103125898</v>
+        <v>2.339536884406909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03509141843961316</v>
+        <v>0.0630285890193818</v>
       </c>
       <c r="D5">
-        <v>0.008618060839541641</v>
+        <v>0.01549274928614253</v>
       </c>
       <c r="E5">
-        <v>0.04785859760342603</v>
+        <v>0.1091676517623199</v>
       </c>
       <c r="F5">
-        <v>2.317347561029834</v>
+        <v>4.573943089524363</v>
       </c>
       <c r="G5">
-        <v>0.0008544836816649272</v>
+        <v>0.002665040783951232</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.695820900371544</v>
+        <v>3.335234776617057</v>
       </c>
       <c r="J5">
-        <v>0.1129992767968631</v>
+        <v>0.2583302681707309</v>
       </c>
       <c r="K5">
-        <v>4.218436005908472</v>
+        <v>4.374137341501751</v>
       </c>
       <c r="L5">
-        <v>0.08856501648413939</v>
+        <v>0.2137880153359859</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.184298850550359</v>
+        <v>2.346963306593604</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03489595458213302</v>
+        <v>0.06298893856074272</v>
       </c>
       <c r="D6">
-        <v>0.008556398697589174</v>
+        <v>0.01547366882466861</v>
       </c>
       <c r="E6">
-        <v>0.04770447754914287</v>
+        <v>0.1091559308776962</v>
       </c>
       <c r="F6">
-        <v>2.312196246251389</v>
+        <v>4.574211644326311</v>
       </c>
       <c r="G6">
-        <v>0.0008548841523362543</v>
+        <v>0.002665305538216423</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.692077242246953</v>
+        <v>3.335440620786059</v>
       </c>
       <c r="J6">
-        <v>0.1127648529363583</v>
+        <v>0.2583477115542721</v>
       </c>
       <c r="K6">
-        <v>4.191728264947983</v>
+        <v>4.368422882636423</v>
       </c>
       <c r="L6">
-        <v>0.0883688385882877</v>
+        <v>0.2137959423982068</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.187502666499599</v>
+        <v>2.348208624536733</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0362549897550295</v>
+        <v>0.06326596573953225</v>
       </c>
       <c r="D7">
-        <v>0.008984676017490756</v>
+        <v>0.01560620495330411</v>
       </c>
       <c r="E7">
-        <v>0.04877957435067515</v>
+        <v>0.1092408276803329</v>
       </c>
       <c r="F7">
-        <v>2.348410244542308</v>
+        <v>4.572560097858215</v>
       </c>
       <c r="G7">
-        <v>0.0008521187223668005</v>
+        <v>0.002663484641470579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.718401537915213</v>
+        <v>3.334167978629281</v>
       </c>
       <c r="J7">
-        <v>0.1144093699266904</v>
+        <v>0.2582363489460491</v>
       </c>
       <c r="K7">
-        <v>4.377654955985008</v>
+        <v>4.408303541895236</v>
       </c>
       <c r="L7">
-        <v>0.08974195840158217</v>
+        <v>0.2137480829453438</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.165410622038118</v>
+        <v>2.339636224055258</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04231489123526444</v>
+        <v>0.06453302188368326</v>
       </c>
       <c r="D8">
-        <v>0.01088338977635317</v>
+        <v>0.01619337349302086</v>
       </c>
       <c r="E8">
-        <v>0.05366438207071411</v>
+        <v>0.109702976923014</v>
       </c>
       <c r="F8">
-        <v>2.52033242183704</v>
+        <v>4.570539883062537</v>
       </c>
       <c r="G8">
-        <v>0.0008402565516814484</v>
+        <v>0.00265586367786506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.843536865737434</v>
+        <v>3.332422641837397</v>
       </c>
       <c r="J8">
-        <v>0.1221225563265307</v>
+        <v>0.2579853705039241</v>
       </c>
       <c r="K8">
-        <v>5.213099022535459</v>
+        <v>4.589642069682839</v>
       </c>
       <c r="L8">
-        <v>0.09610072935839042</v>
+        <v>0.2137140502910171</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.071627813820514</v>
+        <v>2.303577636791626</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05448723653351806</v>
+        <v>0.06717644597885197</v>
       </c>
       <c r="D9">
-        <v>0.01466153832897277</v>
+        <v>0.01735243875618409</v>
       </c>
       <c r="E9">
-        <v>0.06384204596535525</v>
+        <v>0.1109229765986726</v>
       </c>
       <c r="F9">
-        <v>2.909412923810351</v>
+        <v>4.585604076744289</v>
       </c>
       <c r="G9">
-        <v>0.000818090828531973</v>
+        <v>0.002642396825735638</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.12740301383765</v>
+        <v>3.34298210647502</v>
       </c>
       <c r="J9">
-        <v>0.1391765504542519</v>
+        <v>0.2583584615253898</v>
       </c>
       <c r="K9">
-        <v>6.921342115007974</v>
+        <v>4.964584753166832</v>
       </c>
       <c r="L9">
-        <v>0.1098261741048674</v>
+        <v>0.2142834672314393</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9020395677930804</v>
+        <v>2.239236668398085</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06367643602372652</v>
+        <v>0.06921431353443097</v>
       </c>
       <c r="D10">
-        <v>0.01749776072696463</v>
+        <v>0.01820817593381818</v>
       </c>
       <c r="E10">
-        <v>0.07178633784997146</v>
+        <v>0.1120101446443655</v>
       </c>
       <c r="F10">
-        <v>3.236093811901185</v>
+        <v>4.608368987751589</v>
       </c>
       <c r="G10">
-        <v>0.0008023331216040044</v>
+        <v>0.002633393158765207</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.366217696927734</v>
+        <v>3.359338603307251</v>
       </c>
       <c r="J10">
-        <v>0.1531971800076164</v>
+        <v>0.2591616429042745</v>
       </c>
       <c r="K10">
-        <v>8.236657012248884</v>
+        <v>5.25198340220021</v>
       </c>
       <c r="L10">
-        <v>0.120872106718501</v>
+        <v>0.2150895720293988</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7872642607927673</v>
+        <v>2.195855542515956</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06792848505074289</v>
+        <v>0.07016199142648816</v>
       </c>
       <c r="D11">
-        <v>0.01880857784128764</v>
+        <v>0.01859828948085251</v>
       </c>
       <c r="E11">
-        <v>0.07552811028395467</v>
+        <v>0.1125460990398075</v>
       </c>
       <c r="F11">
-        <v>3.395955793232616</v>
+        <v>4.621287627682534</v>
       </c>
       <c r="G11">
-        <v>0.0007952428901580877</v>
+        <v>0.002629488262557946</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.483200539325409</v>
+        <v>3.368663556006624</v>
       </c>
       <c r="J11">
-        <v>0.1599813140858686</v>
+        <v>0.2596423071166925</v>
       </c>
       <c r="K11">
-        <v>8.85270147268659</v>
+        <v>5.385351927123793</v>
       </c>
       <c r="L11">
-        <v>0.1261569372517286</v>
+        <v>0.2155405142176647</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7374691099102044</v>
+        <v>2.176966661962576</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0695506987118506</v>
+        <v>0.07052379995145941</v>
       </c>
       <c r="D12">
-        <v>0.01930866069531589</v>
+        <v>0.01874612639643658</v>
       </c>
       <c r="E12">
-        <v>0.07696594692949077</v>
+        <v>0.1127549948032538</v>
       </c>
       <c r="F12">
-        <v>3.458341191210593</v>
+        <v>4.626549828503727</v>
       </c>
       <c r="G12">
-        <v>0.0007925657513031817</v>
+        <v>0.002628036861999286</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.52887100386026</v>
+        <v>3.37246694020277</v>
       </c>
       <c r="J12">
-        <v>0.1626166456240554</v>
+        <v>0.2598409285372512</v>
       </c>
       <c r="K12">
-        <v>9.08897108646886</v>
+        <v>5.436235286365502</v>
       </c>
       <c r="L12">
-        <v>0.1282004721224226</v>
+        <v>0.2157233859961281</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7189889210207792</v>
+        <v>2.169935713879372</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06920075981055618</v>
+        <v>0.07044574748825028</v>
       </c>
       <c r="D13">
-        <v>0.01920078092805255</v>
+        <v>0.01871428237212314</v>
       </c>
       <c r="E13">
-        <v>0.07665530933022069</v>
+        <v>0.1127097412881817</v>
       </c>
       <c r="F13">
-        <v>3.444819110474867</v>
+        <v>4.625400028037689</v>
       </c>
       <c r="G13">
-        <v>0.0007931420349625916</v>
+        <v>0.002628348235613448</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.518971055863929</v>
+        <v>3.371635685538138</v>
       </c>
       <c r="J13">
-        <v>0.1620459915624508</v>
+        <v>0.2597974129612126</v>
       </c>
       <c r="K13">
-        <v>9.037945650776521</v>
+        <v>5.425259737625026</v>
       </c>
       <c r="L13">
-        <v>0.1277583943979579</v>
+        <v>0.2156834627550097</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7229517303137545</v>
+        <v>2.171444529781118</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06806169322085509</v>
+        <v>0.07019169877911224</v>
       </c>
       <c r="D14">
-        <v>0.01884964099857456</v>
+        <v>0.01861044998074846</v>
       </c>
       <c r="E14">
-        <v>0.0756459672675085</v>
+        <v>0.112563166006673</v>
       </c>
       <c r="F14">
-        <v>3.401049779034793</v>
+        <v>4.621713123223486</v>
       </c>
       <c r="G14">
-        <v>0.0007950225059152884</v>
+        <v>0.002629368308757461</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.486929317477433</v>
+        <v>3.368970999532294</v>
       </c>
       <c r="J14">
-        <v>0.1601967456808282</v>
+        <v>0.2596583148953187</v>
       </c>
       <c r="K14">
-        <v>8.872076901884839</v>
+        <v>5.389530515346337</v>
       </c>
       <c r="L14">
-        <v>0.1263241821723966</v>
+        <v>0.2155553165103257</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7359410161951789</v>
+        <v>2.176385777647978</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06736560717227036</v>
+        <v>0.07003646921126006</v>
       </c>
       <c r="D15">
-        <v>0.01863506433861772</v>
+        <v>0.01854686357905422</v>
       </c>
       <c r="E15">
-        <v>0.07503051966700269</v>
+        <v>0.1124741578440229</v>
       </c>
       <c r="F15">
-        <v>3.374488018512039</v>
+        <v>4.619503047659578</v>
       </c>
       <c r="G15">
-        <v>0.0007961752513253568</v>
+        <v>0.002629996683632723</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.467486955424661</v>
+        <v>3.367374292438498</v>
       </c>
       <c r="J15">
-        <v>0.1590729213250768</v>
+        <v>0.2595752764609642</v>
       </c>
       <c r="K15">
-        <v>8.770880653727772</v>
+        <v>5.367694814539732</v>
       </c>
       <c r="L15">
-        <v>0.1254513493525877</v>
+        <v>0.2154784001814321</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.743947235219915</v>
+        <v>2.179428313383628</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06340014237265734</v>
+        <v>0.0691527937884473</v>
       </c>
       <c r="D16">
-        <v>0.01741257095177673</v>
+        <v>0.01818269697274033</v>
       </c>
       <c r="E16">
-        <v>0.07154458524108165</v>
+        <v>0.111975950786956</v>
       </c>
       <c r="F16">
-        <v>3.225891920680567</v>
+        <v>4.607576435598133</v>
       </c>
       <c r="G16">
-        <v>0.0008027977711504604</v>
+        <v>0.002633652181658759</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.358754648217001</v>
+        <v>3.358767220367014</v>
       </c>
       <c r="J16">
-        <v>0.1527626457928761</v>
+        <v>0.2591325524899446</v>
       </c>
       <c r="K16">
-        <v>8.196789619350113</v>
+        <v>5.243320491632574</v>
       </c>
       <c r="L16">
-        <v>0.120532365907124</v>
+        <v>0.2150617966787749</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7905694778245866</v>
+        <v>2.197107011836176</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0609870133274697</v>
+        <v>0.06861595657770891</v>
       </c>
       <c r="D17">
-        <v>0.01666837768386387</v>
+        <v>0.01795949860589019</v>
       </c>
       <c r="E17">
-        <v>0.0694405191818035</v>
+        <v>0.1116809112707067</v>
       </c>
       <c r="F17">
-        <v>3.137769792444857</v>
+        <v>4.60091740848452</v>
       </c>
       <c r="G17">
-        <v>0.0008068781483411893</v>
+        <v>0.002635943498982074</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.294303058776848</v>
+        <v>3.353970568203692</v>
       </c>
       <c r="J17">
-        <v>0.1490008131035765</v>
+        <v>0.2588905025448511</v>
       </c>
       <c r="K17">
-        <v>7.849432537371683</v>
+        <v>5.167695368072259</v>
       </c>
       <c r="L17">
-        <v>0.1175845984345045</v>
+        <v>0.2148277969259524</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8198088249665538</v>
+        <v>2.208169055235015</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05960569086496292</v>
+        <v>0.06830912635540898</v>
       </c>
       <c r="D18">
-        <v>0.01624222563070177</v>
+        <v>0.01783119995834426</v>
       </c>
       <c r="E18">
-        <v>0.06824218283723482</v>
+        <v>0.1115151093903748</v>
       </c>
       <c r="F18">
-        <v>3.088127916797276</v>
+        <v>4.597328430180056</v>
       </c>
       <c r="G18">
-        <v>0.0008092326488462476</v>
+        <v>0.002637279383542074</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.258006098040084</v>
+        <v>3.351388942735824</v>
       </c>
       <c r="J18">
-        <v>0.1468747940398956</v>
+        <v>0.258762132140447</v>
       </c>
       <c r="K18">
-        <v>7.651278283876252</v>
+        <v>5.124445199322622</v>
       </c>
       <c r="L18">
-        <v>0.1159132615163614</v>
+        <v>0.2147011358069264</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8368520615767903</v>
+        <v>2.214611206051268</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05913909132763706</v>
+        <v>0.06820557362210167</v>
       </c>
       <c r="D19">
-        <v>0.01609824157287321</v>
+        <v>0.0177877741652992</v>
       </c>
       <c r="E19">
-        <v>0.06783841344138608</v>
+        <v>0.1114596413959532</v>
       </c>
       <c r="F19">
-        <v>3.071492748356235</v>
+        <v>4.596154625699199</v>
       </c>
       <c r="G19">
-        <v>0.0008100312408588082</v>
+        <v>0.002637734783550021</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.245844635538816</v>
+        <v>3.350545258853003</v>
       </c>
       <c r="J19">
-        <v>0.1461612090544691</v>
+        <v>0.2587205309310789</v>
       </c>
       <c r="K19">
-        <v>7.584455220609811</v>
+        <v>5.109843882817017</v>
       </c>
       <c r="L19">
-        <v>0.115351383090001</v>
+        <v>0.214659612539073</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8426605369498574</v>
+        <v>2.216806062707377</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06124319548223411</v>
+        <v>0.06867290276400695</v>
       </c>
       <c r="D20">
-        <v>0.01674739792658642</v>
+        <v>0.01798325033934134</v>
       </c>
       <c r="E20">
-        <v>0.06966325524212635</v>
+        <v>0.1117119154847686</v>
       </c>
       <c r="F20">
-        <v>3.147040958313028</v>
+        <v>4.601601306520422</v>
       </c>
       <c r="G20">
-        <v>0.0008064430247539109</v>
+        <v>0.002635697724490005</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.301082777685991</v>
+        <v>3.35446282291278</v>
       </c>
       <c r="J20">
-        <v>0.1493973120713363</v>
+        <v>0.2589151460288548</v>
       </c>
       <c r="K20">
-        <v>7.886236929454014</v>
+        <v>5.175720175884862</v>
       </c>
       <c r="L20">
-        <v>0.1178958614244436</v>
+        <v>0.2148518859738928</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8166727096438198</v>
+        <v>2.206983246004999</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06839592259592564</v>
+        <v>0.07026623935394127</v>
       </c>
       <c r="D21">
-        <v>0.01895267220522356</v>
+        <v>0.01864094518543169</v>
       </c>
       <c r="E21">
-        <v>0.07594184624795375</v>
+        <v>0.1126060575573256</v>
       </c>
       <c r="F21">
-        <v>3.413853705124978</v>
+        <v>4.622785996148139</v>
       </c>
       <c r="G21">
-        <v>0.0007944699846235549</v>
+        <v>0.002629067948903913</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.496302039528729</v>
+        <v>3.36974628401606</v>
       </c>
       <c r="J21">
-        <v>0.1607380451469709</v>
+        <v>0.2596987205237653</v>
       </c>
       <c r="K21">
-        <v>8.920711680596582</v>
+        <v>5.400014739786627</v>
       </c>
       <c r="L21">
-        <v>0.1267442550655034</v>
+        <v>0.2155926275405946</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7321152905814241</v>
+        <v>2.174931103719224</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07314188761907303</v>
+        <v>0.07132472262698286</v>
       </c>
       <c r="D22">
-        <v>0.02041598329958916</v>
+        <v>0.01907141968062831</v>
       </c>
       <c r="E22">
-        <v>0.08016856870215605</v>
+        <v>0.1132250576676803</v>
       </c>
       <c r="F22">
-        <v>3.599141233690574</v>
+        <v>4.638789978877469</v>
       </c>
       <c r="G22">
-        <v>0.0007866882953852023</v>
+        <v>0.002624894054505401</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.631981825872984</v>
+        <v>3.381322263010162</v>
       </c>
       <c r="J22">
-        <v>0.1685409999267051</v>
+        <v>0.2603076271762816</v>
       </c>
       <c r="K22">
-        <v>9.614462898333159</v>
+        <v>5.548817503358691</v>
       </c>
       <c r="L22">
-        <v>0.1327764426722879</v>
+        <v>0.2161473287566054</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6790610570193731</v>
+        <v>2.154693618059195</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07060172416862542</v>
+        <v>0.07075822939847853</v>
       </c>
       <c r="D23">
-        <v>0.01963269022316183</v>
+        <v>0.01884161283970442</v>
       </c>
       <c r="E23">
-        <v>0.07790047994038218</v>
+        <v>0.1128915209011261</v>
       </c>
       <c r="F23">
-        <v>3.499166423445701</v>
+        <v>4.630050282667042</v>
       </c>
       <c r="G23">
-        <v>0.0007908388234878847</v>
+        <v>0.002627107238812811</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.558763230887706</v>
+        <v>3.374998276806977</v>
       </c>
       <c r="J23">
-        <v>0.1643377051482844</v>
+        <v>0.2599737767100621</v>
       </c>
       <c r="K23">
-        <v>9.242416019558902</v>
+        <v>5.469195642051204</v>
       </c>
       <c r="L23">
-        <v>0.1295323421963914</v>
+        <v>0.2158448169254825</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7071644047796788</v>
+        <v>2.165429640352064</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06112735691401383</v>
+        <v>0.06864715177048453</v>
       </c>
       <c r="D24">
-        <v>0.01671166765096999</v>
+        <v>0.01797251211524653</v>
       </c>
       <c r="E24">
-        <v>0.06956252119815076</v>
+        <v>0.1116978865795133</v>
       </c>
       <c r="F24">
-        <v>3.142846301976419</v>
+        <v>4.601291370713085</v>
       </c>
       <c r="G24">
-        <v>0.0008066397169191409</v>
+        <v>0.002635808781418607</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.298015321177331</v>
+        <v>3.354239726348425</v>
       </c>
       <c r="J24">
-        <v>0.1492179411336565</v>
+        <v>0.2589039711116783</v>
       </c>
       <c r="K24">
-        <v>7.869592881029121</v>
+        <v>5.172091451079154</v>
       </c>
       <c r="L24">
-        <v>0.1177550669838325</v>
+        <v>0.2148409708065699</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8180898232979033</v>
+        <v>2.207519093614227</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05115663018104755</v>
+        <v>0.0664444441799219</v>
       </c>
       <c r="D25">
-        <v>0.01363104910670643</v>
+        <v>0.01703811498058982</v>
       </c>
       <c r="E25">
-        <v>0.06101483076253444</v>
+        <v>0.1105593933264473</v>
       </c>
       <c r="F25">
-        <v>2.797715846773386</v>
+        <v>4.579481894849266</v>
       </c>
       <c r="G25">
-        <v>0.0008239834960513391</v>
+        <v>0.002645882841422019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.045837200344664</v>
+        <v>3.338620990348659</v>
       </c>
       <c r="J25">
-        <v>0.1343262345373404</v>
+        <v>0.2581647394871496</v>
       </c>
       <c r="K25">
-        <v>6.450035687579145</v>
+        <v>4.861068388581259</v>
       </c>
       <c r="L25">
-        <v>0.1059597531268608</v>
+        <v>0.214061330004867</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9462803480417286</v>
+        <v>2.255959989681939</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06488711199025943</v>
+        <v>0.04397405125303777</v>
       </c>
       <c r="D2">
-        <v>0.01635300175438559</v>
+        <v>0.01140069244351949</v>
       </c>
       <c r="E2">
-        <v>0.1098494444106812</v>
+        <v>0.05502504591616386</v>
       </c>
       <c r="F2">
-        <v>4.571276472368226</v>
+        <v>2.570126713492044</v>
       </c>
       <c r="G2">
-        <v>0.002653899182221333</v>
+        <v>0.0008371213604625872</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.332893248685494</v>
+        <v>1.879821021631187</v>
       </c>
       <c r="J2">
-        <v>0.2579758678232764</v>
+        <v>0.1243325096178864</v>
       </c>
       <c r="K2">
-        <v>4.640079425027864</v>
+        <v>5.443612080838307</v>
       </c>
       <c r="L2">
-        <v>0.2137478850433965</v>
+        <v>0.09790212580411151</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.294238401452205</v>
+        <v>1.047150607427085</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06387223968761191</v>
+        <v>0.03918225989620083</v>
       </c>
       <c r="D3">
-        <v>0.01589063522901313</v>
+        <v>0.009903887140080059</v>
       </c>
       <c r="E3">
-        <v>0.1094484679372911</v>
+        <v>0.0511216521459037</v>
       </c>
       <c r="F3">
-        <v>4.570580968545528</v>
+        <v>2.429422114017967</v>
       </c>
       <c r="G3">
-        <v>0.002659709070497144</v>
+        <v>0.0008463008341892967</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.332587146422043</v>
+        <v>1.777336621454751</v>
       </c>
       <c r="J3">
-        <v>0.2580690294620993</v>
+        <v>0.1180615084369734</v>
       </c>
       <c r="K3">
-        <v>4.495262951214954</v>
+        <v>4.779933903019582</v>
       </c>
       <c r="L3">
-        <v>0.2136980212008766</v>
+        <v>0.09276800331328872</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.321807395555494</v>
+        <v>1.119199160613942</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06326923176878552</v>
+        <v>0.03627092377395513</v>
       </c>
       <c r="D4">
-        <v>0.01560775708728457</v>
+        <v>0.00898969126881255</v>
       </c>
       <c r="E4">
-        <v>0.1092418690032009</v>
+        <v>0.04879222726992793</v>
       </c>
       <c r="F4">
-        <v>4.572543650682661</v>
+        <v>2.348840265751136</v>
       </c>
       <c r="G4">
-        <v>0.002663463562251276</v>
+        <v>0.0008520865557107139</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.334155201672814</v>
+        <v>1.718714208262114</v>
       </c>
       <c r="J4">
-        <v>0.2582351773818132</v>
+        <v>0.1144288501654529</v>
       </c>
       <c r="K4">
-        <v>4.408773118721513</v>
+        <v>4.379838042380925</v>
       </c>
       <c r="L4">
-        <v>0.2137476198980011</v>
+        <v>0.0897581817951334</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.339536884406909</v>
+        <v>1.165154103125925</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0630285890193818</v>
+        <v>0.03509141843960606</v>
       </c>
       <c r="D5">
-        <v>0.01549274928614253</v>
+        <v>0.008618060839541641</v>
       </c>
       <c r="E5">
-        <v>0.1091676517623199</v>
+        <v>0.04785859760340472</v>
       </c>
       <c r="F5">
-        <v>4.573943089524363</v>
+        <v>2.31734756102982</v>
       </c>
       <c r="G5">
-        <v>0.002665040783951232</v>
+        <v>0.0008544836817112655</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.335234776617057</v>
+        <v>1.695820900371544</v>
       </c>
       <c r="J5">
-        <v>0.2583302681707309</v>
+        <v>0.1129992767969199</v>
       </c>
       <c r="K5">
-        <v>4.374137341501751</v>
+        <v>4.218436005908416</v>
       </c>
       <c r="L5">
-        <v>0.2137880153359859</v>
+        <v>0.08856501648408965</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.346963306593604</v>
+        <v>1.1842988505503</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06298893856074272</v>
+        <v>0.03489595458200512</v>
       </c>
       <c r="D6">
-        <v>0.01547366882466861</v>
+        <v>0.008556398697564305</v>
       </c>
       <c r="E6">
-        <v>0.1091559308776962</v>
+        <v>0.04770447754912865</v>
       </c>
       <c r="F6">
-        <v>4.574211644326311</v>
+        <v>2.312196246251361</v>
       </c>
       <c r="G6">
-        <v>0.002665305538216423</v>
+        <v>0.0008548841522909739</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.335440620786059</v>
+        <v>1.692077242246938</v>
       </c>
       <c r="J6">
-        <v>0.2583477115542721</v>
+        <v>0.1127648529363583</v>
       </c>
       <c r="K6">
-        <v>4.368422882636423</v>
+        <v>4.191728264947926</v>
       </c>
       <c r="L6">
-        <v>0.2137959423982068</v>
+        <v>0.08836883858823796</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.348208624536733</v>
+        <v>1.187502666499661</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06326596573953225</v>
+        <v>0.03625498975514319</v>
       </c>
       <c r="D7">
-        <v>0.01560620495330411</v>
+        <v>0.008984676017377069</v>
       </c>
       <c r="E7">
-        <v>0.1092408276803329</v>
+        <v>0.04877957435065561</v>
       </c>
       <c r="F7">
-        <v>4.572560097858215</v>
+        <v>2.348410244542279</v>
       </c>
       <c r="G7">
-        <v>0.002663484641470579</v>
+        <v>0.0008521187223972331</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.334167978629281</v>
+        <v>1.718401537915227</v>
       </c>
       <c r="J7">
-        <v>0.2582363489460491</v>
+        <v>0.1144093699266406</v>
       </c>
       <c r="K7">
-        <v>4.408303541895236</v>
+        <v>4.377654955985008</v>
       </c>
       <c r="L7">
-        <v>0.2137480829453438</v>
+        <v>0.08974195840156796</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.339636224055258</v>
+        <v>1.165410622038108</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06453302188368326</v>
+        <v>0.04231489123525733</v>
       </c>
       <c r="D8">
-        <v>0.01619337349302086</v>
+        <v>0.01088338977624304</v>
       </c>
       <c r="E8">
-        <v>0.109702976923014</v>
+        <v>0.05366438207071056</v>
       </c>
       <c r="F8">
-        <v>4.570539883062537</v>
+        <v>2.52033242183704</v>
       </c>
       <c r="G8">
-        <v>0.00265586367786506</v>
+        <v>0.0008402565516210553</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.332422641837397</v>
+        <v>1.843536865737434</v>
       </c>
       <c r="J8">
-        <v>0.2579853705039241</v>
+        <v>0.1221225563264667</v>
       </c>
       <c r="K8">
-        <v>4.589642069682839</v>
+        <v>5.213099022535459</v>
       </c>
       <c r="L8">
-        <v>0.2137140502910171</v>
+        <v>0.09610072935827674</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.303577636791626</v>
+        <v>1.071627813820514</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06717644597885197</v>
+        <v>0.05448723653328358</v>
       </c>
       <c r="D9">
-        <v>0.01735243875618409</v>
+        <v>0.01466153832920725</v>
       </c>
       <c r="E9">
-        <v>0.1109229765986726</v>
+        <v>0.06384204596535525</v>
       </c>
       <c r="F9">
-        <v>4.585604076744289</v>
+        <v>2.909412923810322</v>
       </c>
       <c r="G9">
-        <v>0.002642396825735638</v>
+        <v>0.0008180908285905995</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.34298210647502</v>
+        <v>2.12740301383765</v>
       </c>
       <c r="J9">
-        <v>0.2583584615253898</v>
+        <v>0.1391765504541951</v>
       </c>
       <c r="K9">
-        <v>4.964584753166832</v>
+        <v>6.921342115008031</v>
       </c>
       <c r="L9">
-        <v>0.2142834672314393</v>
+        <v>0.1098261741048745</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.239236668398085</v>
+        <v>0.9020395677930892</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06921431353443097</v>
+        <v>0.06367643602373363</v>
       </c>
       <c r="D10">
-        <v>0.01820817593381818</v>
+        <v>0.01749776072659515</v>
       </c>
       <c r="E10">
-        <v>0.1120101446443655</v>
+        <v>0.07178633785000699</v>
       </c>
       <c r="F10">
-        <v>4.608368987751589</v>
+        <v>3.236093811901156</v>
       </c>
       <c r="G10">
-        <v>0.002633393158765207</v>
+        <v>0.0008023331216647589</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.359338603307251</v>
+        <v>2.366217696927748</v>
       </c>
       <c r="J10">
-        <v>0.2591616429042745</v>
+        <v>0.1531971800075524</v>
       </c>
       <c r="K10">
-        <v>5.25198340220021</v>
+        <v>8.236657012248997</v>
       </c>
       <c r="L10">
-        <v>0.2150895720293988</v>
+        <v>0.1208721067186076</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.195855542515956</v>
+        <v>0.7872642607927034</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07016199142648816</v>
+        <v>0.06792848505123317</v>
       </c>
       <c r="D11">
-        <v>0.01859828948085251</v>
+        <v>0.01880857784128764</v>
       </c>
       <c r="E11">
-        <v>0.1125460990398075</v>
+        <v>0.07552811028395467</v>
       </c>
       <c r="F11">
-        <v>4.621287627682534</v>
+        <v>3.395955793232588</v>
       </c>
       <c r="G11">
-        <v>0.002629488262557946</v>
+        <v>0.0007952428902206372</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.368663556006624</v>
+        <v>2.483200539325409</v>
       </c>
       <c r="J11">
-        <v>0.2596423071166925</v>
+        <v>0.1599813140860462</v>
       </c>
       <c r="K11">
-        <v>5.385351927123793</v>
+        <v>8.852701472686533</v>
       </c>
       <c r="L11">
-        <v>0.2155405142176647</v>
+        <v>0.1261569372517002</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.176966661962576</v>
+        <v>0.7374691099101849</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07052379995145941</v>
+        <v>0.06955069871183639</v>
       </c>
       <c r="D12">
-        <v>0.01874612639643658</v>
+        <v>0.01930866069531589</v>
       </c>
       <c r="E12">
-        <v>0.1127549948032538</v>
+        <v>0.07696594692948722</v>
       </c>
       <c r="F12">
-        <v>4.626549828503727</v>
+        <v>3.458341191210593</v>
       </c>
       <c r="G12">
-        <v>0.002628036861999286</v>
+        <v>0.0007925657513029343</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.37246694020277</v>
+        <v>2.528871003860274</v>
       </c>
       <c r="J12">
-        <v>0.2598409285372512</v>
+        <v>0.1626166456239773</v>
       </c>
       <c r="K12">
-        <v>5.436235286365502</v>
+        <v>9.08897108646886</v>
       </c>
       <c r="L12">
-        <v>0.2157233859961281</v>
+        <v>0.1282004721222449</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.169935713879372</v>
+        <v>0.7189889210207738</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07044574748825028</v>
+        <v>0.06920075981081197</v>
       </c>
       <c r="D13">
-        <v>0.01871428237212314</v>
+        <v>0.01920078092816979</v>
       </c>
       <c r="E13">
-        <v>0.1127097412881817</v>
+        <v>0.07665530933022779</v>
       </c>
       <c r="F13">
-        <v>4.625400028037689</v>
+        <v>3.444819110474867</v>
       </c>
       <c r="G13">
-        <v>0.002628348235613448</v>
+        <v>0.0007931420349630815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.371635685538138</v>
+        <v>2.518971055863915</v>
       </c>
       <c r="J13">
-        <v>0.2597974129612126</v>
+        <v>0.1620459915622092</v>
       </c>
       <c r="K13">
-        <v>5.425259737625026</v>
+        <v>9.037945650776635</v>
       </c>
       <c r="L13">
-        <v>0.2156834627550097</v>
+        <v>0.127758394397965</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.171444529781118</v>
+        <v>0.7229517303137545</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07019169877911224</v>
+        <v>0.06806169322040034</v>
       </c>
       <c r="D14">
-        <v>0.01861044998074846</v>
+        <v>0.01884964099870601</v>
       </c>
       <c r="E14">
-        <v>0.112563166006673</v>
+        <v>0.07564596726748007</v>
       </c>
       <c r="F14">
-        <v>4.621713123223486</v>
+        <v>3.401049779034793</v>
       </c>
       <c r="G14">
-        <v>0.002629368308757461</v>
+        <v>0.0007950225058636311</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.368970999532294</v>
+        <v>2.486929317477433</v>
       </c>
       <c r="J14">
-        <v>0.2596583148953187</v>
+        <v>0.1601967456807856</v>
       </c>
       <c r="K14">
-        <v>5.389530515346337</v>
+        <v>8.872076901884839</v>
       </c>
       <c r="L14">
-        <v>0.2155553165103257</v>
+        <v>0.1263241821725103</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.176385777647978</v>
+        <v>0.7359410161951789</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07003646921126006</v>
+        <v>0.06736560717204298</v>
       </c>
       <c r="D15">
-        <v>0.01854686357905422</v>
+        <v>0.01863506433886997</v>
       </c>
       <c r="E15">
-        <v>0.1124741578440229</v>
+        <v>0.07503051966694585</v>
       </c>
       <c r="F15">
-        <v>4.619503047659578</v>
+        <v>3.374488018512068</v>
       </c>
       <c r="G15">
-        <v>0.002629996683632723</v>
+        <v>0.0007961752512701306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.367374292438498</v>
+        <v>2.46748695542469</v>
       </c>
       <c r="J15">
-        <v>0.2595752764609642</v>
+        <v>0.159072921325162</v>
       </c>
       <c r="K15">
-        <v>5.367694814539732</v>
+        <v>8.770880653727829</v>
       </c>
       <c r="L15">
-        <v>0.2154784001814321</v>
+        <v>0.1254513493526801</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.179428313383628</v>
+        <v>0.7439472352199221</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0691527937884473</v>
+        <v>0.06340014237267155</v>
       </c>
       <c r="D16">
-        <v>0.01818269697274033</v>
+        <v>0.01741257095166659</v>
       </c>
       <c r="E16">
-        <v>0.111975950786956</v>
+        <v>0.07154458524099994</v>
       </c>
       <c r="F16">
-        <v>4.607576435598133</v>
+        <v>3.225891920680539</v>
       </c>
       <c r="G16">
-        <v>0.002633652181658759</v>
+        <v>0.0008027977710939916</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.358767220367014</v>
+        <v>2.358754648216987</v>
       </c>
       <c r="J16">
-        <v>0.2591325524899446</v>
+        <v>0.1527626457928264</v>
       </c>
       <c r="K16">
-        <v>5.243320491632574</v>
+        <v>8.196789619350284</v>
       </c>
       <c r="L16">
-        <v>0.2150617966787749</v>
+        <v>0.1205323659070814</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.197107011836176</v>
+        <v>0.7905694778245849</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06861595657770891</v>
+        <v>0.0609870133272139</v>
       </c>
       <c r="D17">
-        <v>0.01795949860589019</v>
+        <v>0.01666837768397755</v>
       </c>
       <c r="E17">
-        <v>0.1116809112707067</v>
+        <v>0.06944051918183192</v>
       </c>
       <c r="F17">
-        <v>4.60091740848452</v>
+        <v>3.137769792444857</v>
       </c>
       <c r="G17">
-        <v>0.002635943498982074</v>
+        <v>0.0008068781483387821</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.353970568203692</v>
+        <v>2.294303058776848</v>
       </c>
       <c r="J17">
-        <v>0.2588905025448511</v>
+        <v>0.1490008131035978</v>
       </c>
       <c r="K17">
-        <v>5.167695368072259</v>
+        <v>7.849432537371513</v>
       </c>
       <c r="L17">
-        <v>0.2148277969259524</v>
+        <v>0.1175845984344832</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.208169055235015</v>
+        <v>0.8198088249665432</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06830912635540898</v>
+        <v>0.05960569086472134</v>
       </c>
       <c r="D18">
-        <v>0.01783119995834426</v>
+        <v>0.01624222563082256</v>
       </c>
       <c r="E18">
-        <v>0.1115151093903748</v>
+        <v>0.06824218283726324</v>
       </c>
       <c r="F18">
-        <v>4.597328430180056</v>
+        <v>3.088127916797305</v>
       </c>
       <c r="G18">
-        <v>0.002637279383542074</v>
+        <v>0.0008092326488458801</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.351388942735824</v>
+        <v>2.258006098040113</v>
       </c>
       <c r="J18">
-        <v>0.258762132140447</v>
+        <v>0.1468747940397535</v>
       </c>
       <c r="K18">
-        <v>5.124445199322622</v>
+        <v>7.651278283876252</v>
       </c>
       <c r="L18">
-        <v>0.2147011358069264</v>
+        <v>0.1159132615163685</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.214611206051268</v>
+        <v>0.8368520615768027</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06820557362210167</v>
+        <v>0.059139091327161</v>
       </c>
       <c r="D19">
-        <v>0.0177877741652992</v>
+        <v>0.01609824157299045</v>
       </c>
       <c r="E19">
-        <v>0.1114596413959532</v>
+        <v>0.06783841344138253</v>
       </c>
       <c r="F19">
-        <v>4.596154625699199</v>
+        <v>3.071492748356235</v>
       </c>
       <c r="G19">
-        <v>0.002637734783550021</v>
+        <v>0.0008100312409176909</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.350545258853003</v>
+        <v>2.24584463553883</v>
       </c>
       <c r="J19">
-        <v>0.2587205309310789</v>
+        <v>0.146161209054597</v>
       </c>
       <c r="K19">
-        <v>5.109843882817017</v>
+        <v>7.584455220609868</v>
       </c>
       <c r="L19">
-        <v>0.214659612539073</v>
+        <v>0.1153513830899442</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.216806062707377</v>
+        <v>0.8426605369498663</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06867290276400695</v>
+        <v>0.0612431954824828</v>
       </c>
       <c r="D20">
-        <v>0.01798325033934134</v>
+        <v>0.01674739792670721</v>
       </c>
       <c r="E20">
-        <v>0.1117119154847686</v>
+        <v>0.06966325524212991</v>
       </c>
       <c r="F20">
-        <v>4.601601306520422</v>
+        <v>3.147040958313056</v>
       </c>
       <c r="G20">
-        <v>0.002635697724490005</v>
+        <v>0.0008064430246943477</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.35446282291278</v>
+        <v>2.301082777685977</v>
       </c>
       <c r="J20">
-        <v>0.2589151460288548</v>
+        <v>0.1493973120713505</v>
       </c>
       <c r="K20">
-        <v>5.175720175884862</v>
+        <v>7.886236929453958</v>
       </c>
       <c r="L20">
-        <v>0.2148518859738928</v>
+        <v>0.1178958614244792</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.206983246004999</v>
+        <v>0.8166727096438251</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07026623935394127</v>
+        <v>0.06839592259595406</v>
       </c>
       <c r="D21">
-        <v>0.01864094518543169</v>
+        <v>0.01895267220548291</v>
       </c>
       <c r="E21">
-        <v>0.1126060575573256</v>
+        <v>0.07594184624796796</v>
       </c>
       <c r="F21">
-        <v>4.622785996148139</v>
+        <v>3.413853705124978</v>
       </c>
       <c r="G21">
-        <v>0.002629067948903913</v>
+        <v>0.0007944699846895308</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.36974628401606</v>
+        <v>2.496302039528715</v>
       </c>
       <c r="J21">
-        <v>0.2596987205237653</v>
+        <v>0.1607380451468856</v>
       </c>
       <c r="K21">
-        <v>5.400014739786627</v>
+        <v>8.920711680596639</v>
       </c>
       <c r="L21">
-        <v>0.2155926275405946</v>
+        <v>0.1267442550657165</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.174931103719224</v>
+        <v>0.7321152905814436</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07132472262698286</v>
+        <v>0.07314188761907303</v>
       </c>
       <c r="D22">
-        <v>0.01907141968062831</v>
+        <v>0.02041598329957139</v>
       </c>
       <c r="E22">
-        <v>0.1132250576676803</v>
+        <v>0.08016856870212052</v>
       </c>
       <c r="F22">
-        <v>4.638789978877469</v>
+        <v>3.599141233690546</v>
       </c>
       <c r="G22">
-        <v>0.002624894054505401</v>
+        <v>0.0007866882952613225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.381322263010162</v>
+        <v>2.631981825872998</v>
       </c>
       <c r="J22">
-        <v>0.2603076271762816</v>
+        <v>0.1685409999267122</v>
       </c>
       <c r="K22">
-        <v>5.548817503358691</v>
+        <v>9.614462898333329</v>
       </c>
       <c r="L22">
-        <v>0.2161473287566054</v>
+        <v>0.1327764426721956</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.154693618059195</v>
+        <v>0.6790610570193607</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07075822939847853</v>
+        <v>0.07060172416862542</v>
       </c>
       <c r="D23">
-        <v>0.01884161283970442</v>
+        <v>0.01963269022330039</v>
       </c>
       <c r="E23">
-        <v>0.1128915209011261</v>
+        <v>0.07790047994035376</v>
       </c>
       <c r="F23">
-        <v>4.630050282667042</v>
+        <v>3.499166423445729</v>
       </c>
       <c r="G23">
-        <v>0.002627107238812811</v>
+        <v>0.0007908388234867392</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.374998276806977</v>
+        <v>2.55876323088772</v>
       </c>
       <c r="J23">
-        <v>0.2599737767100621</v>
+        <v>0.1643377051482844</v>
       </c>
       <c r="K23">
-        <v>5.469195642051204</v>
+        <v>9.242416019559016</v>
       </c>
       <c r="L23">
-        <v>0.2158448169254825</v>
+        <v>0.1295323421962991</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.165429640352064</v>
+        <v>0.7071644047796806</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06864715177048453</v>
+        <v>0.06112735691399251</v>
       </c>
       <c r="D24">
-        <v>0.01797251211524653</v>
+        <v>0.01671166765096643</v>
       </c>
       <c r="E24">
-        <v>0.1116978865795133</v>
+        <v>0.06956252119819339</v>
       </c>
       <c r="F24">
-        <v>4.601291370713085</v>
+        <v>3.142846301976391</v>
       </c>
       <c r="G24">
-        <v>0.002635808781418607</v>
+        <v>0.0008066397169181516</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.354239726348425</v>
+        <v>2.298015321177317</v>
       </c>
       <c r="J24">
-        <v>0.2589039711116783</v>
+        <v>0.1492179411336423</v>
       </c>
       <c r="K24">
-        <v>5.172091451079154</v>
+        <v>7.869592881029007</v>
       </c>
       <c r="L24">
-        <v>0.2148409708065699</v>
+        <v>0.1177550669837615</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.207519093614227</v>
+        <v>0.8180898232978837</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0664444441799219</v>
+        <v>0.05115663018081307</v>
       </c>
       <c r="D25">
-        <v>0.01703811498058982</v>
+        <v>0.0136310491066105</v>
       </c>
       <c r="E25">
-        <v>0.1105593933264473</v>
+        <v>0.061014830762538</v>
       </c>
       <c r="F25">
-        <v>4.579481894849266</v>
+        <v>2.797715846773386</v>
       </c>
       <c r="G25">
-        <v>0.002645882841422019</v>
+        <v>0.0008239834959943293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.338620990348659</v>
+        <v>2.045837200344678</v>
       </c>
       <c r="J25">
-        <v>0.2581647394871496</v>
+        <v>0.1343262345374825</v>
       </c>
       <c r="K25">
-        <v>4.861068388581259</v>
+        <v>6.450035687579259</v>
       </c>
       <c r="L25">
-        <v>0.214061330004867</v>
+        <v>0.1059597531269461</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.255959989681939</v>
+        <v>0.9462803480418085</v>
       </c>
       <c r="O25">
         <v>0</v>
